--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrz_atom_map.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrz_atom_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>log_name</t>
   </si>
@@ -28,15 +28,21 @@
     <t>N1</t>
   </si>
   <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>N2</t>
-  </si>
-  <si>
     <t>pyrz1_conf-1</t>
   </si>
   <si>
@@ -62,12 +68,6 @@
   </si>
   <si>
     <t>N10</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C5</t>
   </si>
   <si>
     <t>N12</t>
@@ -434,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,129 +462,159 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -592,31 +622,43 @@
       <c r="H6" t="s">
         <v>20</v>
       </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
